--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="250">
   <si>
     <t>quickref</t>
   </si>
@@ -747,6 +747,36 @@
   </si>
   <si>
     <t>Dominio de la Sepultura</t>
+  </si>
+  <si>
+    <t>Circle of Dreams</t>
+  </si>
+  <si>
+    <t>Circle of the Shepherd</t>
+  </si>
+  <si>
+    <t>Círculo del Pastor</t>
+  </si>
+  <si>
+    <t>Círculo de los Sueños</t>
+  </si>
+  <si>
+    <t>Gloom Stalker</t>
+  </si>
+  <si>
+    <t>Horizon Walker</t>
+  </si>
+  <si>
+    <t>Monster Slayer</t>
+  </si>
+  <si>
+    <t>Acechador en la Penumbra</t>
+  </si>
+  <si>
+    <t>Caminante del Horizonte</t>
+  </si>
+  <si>
+    <t>Cazador de Monstruos</t>
   </si>
 </sst>
 </file>
@@ -2026,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2086,7 @@
     <col min="27" max="27" width="25" customWidth="1"/>
     <col min="28" max="28" width="20.625" customWidth="1"/>
     <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="18.125" customWidth="1"/>
+    <col min="31" max="31" width="24.75" customWidth="1"/>
     <col min="32" max="32" width="14.5" customWidth="1"/>
     <col min="34" max="34" width="8.75" customWidth="1"/>
     <col min="35" max="35" width="18.375" customWidth="1"/>
@@ -2169,6 +2199,18 @@
       <c r="L3" t="s">
         <v>236</v>
       </c>
+      <c r="O3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>244</v>
+      </c>
       <c r="AQ3" t="s">
         <v>233</v>
       </c>
@@ -2195,6 +2237,18 @@
       <c r="L4" t="s">
         <v>237</v>
       </c>
+      <c r="O4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>245</v>
+      </c>
       <c r="AQ4" t="s">
         <v>234</v>
       </c>
@@ -2216,6 +2270,12 @@
         <v>227</v>
       </c>
       <c r="AA5" s="8"/>
+      <c r="AE5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="O6" s="8"/>

--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="256">
   <si>
     <t>quickref</t>
   </si>
@@ -777,6 +777,24 @@
   </si>
   <si>
     <t>Cazador de Monstruos</t>
+  </si>
+  <si>
+    <t>Arcane Archer</t>
+  </si>
+  <si>
+    <t>Cavalier</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Arquero Arcano</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>Samurái</t>
   </si>
 </sst>
 </file>
@@ -2056,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2205,6 +2223,12 @@
       <c r="P3" t="s">
         <v>240</v>
       </c>
+      <c r="S3" t="s">
+        <v>253</v>
+      </c>
+      <c r="T3" t="s">
+        <v>250</v>
+      </c>
       <c r="AE3" t="s">
         <v>247</v>
       </c>
@@ -2243,6 +2267,12 @@
       <c r="P4" t="s">
         <v>241</v>
       </c>
+      <c r="S4" t="s">
+        <v>254</v>
+      </c>
+      <c r="T4" t="s">
+        <v>251</v>
+      </c>
       <c r="AE4" t="s">
         <v>248</v>
       </c>
@@ -2268,6 +2298,12 @@
       </c>
       <c r="H5" t="s">
         <v>227</v>
+      </c>
+      <c r="S5" t="s">
+        <v>255</v>
+      </c>
+      <c r="T5" t="s">
+        <v>252</v>
       </c>
       <c r="AA5" s="8"/>
       <c r="AE5" t="s">

--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="262">
   <si>
     <t>quickref</t>
   </si>
@@ -795,6 +795,24 @@
   </si>
   <si>
     <t>Samurái</t>
+  </si>
+  <si>
+    <t>Divine Soul</t>
+  </si>
+  <si>
+    <t>Shadow Magic</t>
+  </si>
+  <si>
+    <t>Storm Sorcery</t>
+  </si>
+  <si>
+    <t>Alma Divina</t>
+  </si>
+  <si>
+    <t>Magia de las Sombras</t>
+  </si>
+  <si>
+    <t>Hechicería de Tormenta</t>
   </si>
 </sst>
 </file>
@@ -2074,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2128,7 @@
     <col min="35" max="35" width="18.375" customWidth="1"/>
     <col min="36" max="36" width="15.125" customWidth="1"/>
     <col min="38" max="38" width="10" customWidth="1"/>
-    <col min="39" max="39" width="15.75" customWidth="1"/>
+    <col min="39" max="39" width="21" customWidth="1"/>
     <col min="40" max="40" width="17.375" customWidth="1"/>
     <col min="43" max="43" width="21.375" customWidth="1"/>
     <col min="44" max="44" width="20" customWidth="1"/>
@@ -2235,6 +2253,12 @@
       <c r="AF3" t="s">
         <v>244</v>
       </c>
+      <c r="AM3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>256</v>
+      </c>
       <c r="AQ3" t="s">
         <v>233</v>
       </c>
@@ -2279,6 +2303,12 @@
       <c r="AF4" t="s">
         <v>245</v>
       </c>
+      <c r="AM4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>257</v>
+      </c>
       <c r="AQ4" t="s">
         <v>234</v>
       </c>
@@ -2311,6 +2341,12 @@
       </c>
       <c r="AF5" t="s">
         <v>246</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.25">

--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="264">
   <si>
     <t>quickref</t>
   </si>
@@ -813,6 +813,12 @@
   </si>
   <si>
     <t>Hechicería de Tormenta</t>
+  </si>
+  <si>
+    <t>War Magic</t>
+  </si>
+  <si>
+    <t>Magia de Guerra</t>
   </si>
 </sst>
 </file>
@@ -2090,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AU7"/>
+  <dimension ref="B2:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2142,7 @@
     <col min="48" max="48" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>223</v>
       </c>
@@ -2265,8 +2271,14 @@
       <c r="AR3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AU3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>224</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>222</v>
       </c>
@@ -2349,11 +2361,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="O6" s="8"/>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
     </row>
   </sheetData>

--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="283">
   <si>
     <t>quickref</t>
   </si>
@@ -819,6 +819,63 @@
   </si>
   <si>
     <t>Magia de Guerra</t>
+  </si>
+  <si>
+    <t>Way of the Drunken Master</t>
+  </si>
+  <si>
+    <t>Way of the Kensei</t>
+  </si>
+  <si>
+    <t>Way of the Sun Soul</t>
+  </si>
+  <si>
+    <t>Camino del Alma Solar</t>
+  </si>
+  <si>
+    <t>Camino del Kensei</t>
+  </si>
+  <si>
+    <t>Camino del Maestro Borracho</t>
+  </si>
+  <si>
+    <t>Paladín</t>
+  </si>
+  <si>
+    <t>Oath of Conquest</t>
+  </si>
+  <si>
+    <t>Oath of Redemption</t>
+  </si>
+  <si>
+    <t>Juramento de Conquista</t>
+  </si>
+  <si>
+    <t>Juramento de Redención</t>
+  </si>
+  <si>
+    <t>Inquisitive</t>
+  </si>
+  <si>
+    <t>Mastermind</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Swashbuckler</t>
+  </si>
+  <si>
+    <t>Batidor</t>
+  </si>
+  <si>
+    <t>Espadachín</t>
+  </si>
+  <si>
+    <t>Inquisitivo</t>
+  </si>
+  <si>
+    <t>Mente Maestra</t>
   </si>
 </sst>
 </file>
@@ -2098,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2123,8 +2180,8 @@
     <col min="19" max="19" width="20.25" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
     <col min="21" max="21" width="7.25" customWidth="1"/>
-    <col min="23" max="23" width="16.75" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="23" max="23" width="26.875" customWidth="1"/>
+    <col min="24" max="24" width="24.625" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
     <col min="28" max="28" width="20.625" customWidth="1"/>
     <col min="30" max="30" width="11.875" customWidth="1"/>
@@ -2186,7 +2243,7 @@
       </c>
       <c r="X2"/>
       <c r="Z2" s="9" t="s">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="AA2" s="9" t="s">
         <v>15</v>
@@ -2253,11 +2310,29 @@
       <c r="T3" t="s">
         <v>250</v>
       </c>
+      <c r="W3" t="s">
+        <v>269</v>
+      </c>
+      <c r="X3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>271</v>
+      </c>
       <c r="AE3" t="s">
         <v>247</v>
       </c>
       <c r="AF3" t="s">
         <v>244</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>275</v>
       </c>
       <c r="AM3" t="s">
         <v>259</v>
@@ -2309,11 +2384,29 @@
       <c r="T4" t="s">
         <v>251</v>
       </c>
+      <c r="W4" t="s">
+        <v>268</v>
+      </c>
+      <c r="X4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>272</v>
+      </c>
       <c r="AE4" t="s">
         <v>248</v>
       </c>
       <c r="AF4" t="s">
         <v>245</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>276</v>
       </c>
       <c r="AM4" t="s">
         <v>260</v>
@@ -2347,6 +2440,12 @@
       <c r="T5" t="s">
         <v>252</v>
       </c>
+      <c r="W5" t="s">
+        <v>267</v>
+      </c>
+      <c r="X5" t="s">
+        <v>266</v>
+      </c>
       <c r="AA5" s="8"/>
       <c r="AE5" t="s">
         <v>249</v>
@@ -2354,6 +2453,12 @@
       <c r="AF5" t="s">
         <v>246</v>
       </c>
+      <c r="AI5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>277</v>
+      </c>
       <c r="AM5" t="s">
         <v>261</v>
       </c>
@@ -2363,6 +2468,12 @@
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
       <c r="O6" s="8"/>
+      <c r="AI6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>278</v>
+      </c>
       <c r="AQ6" s="10"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">

--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="3"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="313">
   <si>
     <t>quickref</t>
   </si>
@@ -876,6 +876,96 @@
   </si>
   <si>
     <t>Mente Maestra</t>
+  </si>
+  <si>
+    <t>Bountiful Luck</t>
+  </si>
+  <si>
+    <t>Dragon Fear</t>
+  </si>
+  <si>
+    <t>Dragon Hide</t>
+  </si>
+  <si>
+    <t>Drow High Magic</t>
+  </si>
+  <si>
+    <t>Dwarven Fortitude</t>
+  </si>
+  <si>
+    <t>Elven Accuracy</t>
+  </si>
+  <si>
+    <t>Fade Away</t>
+  </si>
+  <si>
+    <t>Fey Teleportation</t>
+  </si>
+  <si>
+    <t>Flames of Phlegethos</t>
+  </si>
+  <si>
+    <t>Infernal Constitution</t>
+  </si>
+  <si>
+    <t>Orcish Fury</t>
+  </si>
+  <si>
+    <t>Prodigy</t>
+  </si>
+  <si>
+    <t>Second Chance</t>
+  </si>
+  <si>
+    <t>Squat Nimbleness</t>
+  </si>
+  <si>
+    <t>Wood Elf Magic</t>
+  </si>
+  <si>
+    <t>Suerte Abundante</t>
+  </si>
+  <si>
+    <t>Miedo Dracónico</t>
+  </si>
+  <si>
+    <t>Piel Dracónica</t>
+  </si>
+  <si>
+    <t>Alta Magia Drow</t>
+  </si>
+  <si>
+    <t>Fortaleza Enana</t>
+  </si>
+  <si>
+    <t>Precisión Élfica</t>
+  </si>
+  <si>
+    <t>Desvanecerse</t>
+  </si>
+  <si>
+    <t>Teletransportación Feérica</t>
+  </si>
+  <si>
+    <t>Llamas de Phlegethos</t>
+  </si>
+  <si>
+    <t>Constitución Infernal</t>
+  </si>
+  <si>
+    <t>Furia Orca</t>
+  </si>
+  <si>
+    <t>Prodigio</t>
+  </si>
+  <si>
+    <t>Segunda Oportunidad</t>
+  </si>
+  <si>
+    <t>Agilidad de los Bajitos</t>
+  </si>
+  <si>
+    <t>Magia de los Elfos de los Bosques</t>
   </si>
 </sst>
 </file>
@@ -2155,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
@@ -2515,15 +2605,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C1"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2533,6 +2623,126 @@
       </c>
       <c r="C1" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Trad XGE.xlsx
+++ b/excels/Trad XGE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="5"/>
+    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -2245,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV7"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
